--- a/【模板】贷款信息表.xlsx
+++ b/【模板】贷款信息表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15280" activeTab="2"/>
+    <workbookView windowWidth="21600" windowHeight="15280" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="贷款明细表" sheetId="1" r:id="rId1"/>
@@ -127,25 +127,10 @@
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF535353"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF535353"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -303,18 +288,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -503,27 +482,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -642,171 +606,171 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -50462,771 +50426,772 @@
   <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="10.1538461538462" style="1"/>
-    <col min="2" max="3" width="9.23076923076923" style="1"/>
+    <col min="1" max="1" width="13.3076923076923" style="1"/>
+    <col min="2" max="2" width="9.84615384615385" style="2"/>
+    <col min="3" max="3" width="13.1346153846154" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="3">
+      <c r="A2" s="1">
         <v>45736</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="2">
         <v>0.031</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="2">
         <v>0.036</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="3">
+      <c r="A3" s="1">
         <v>45708</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="2">
         <v>0.031</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>0.036</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="3">
+      <c r="A4" s="1">
         <v>45677</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2">
         <v>0.031</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>0.036</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="3">
+      <c r="A5" s="1">
         <v>45646</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="2">
         <v>0.031</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>0.036</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="3">
+      <c r="A6" s="1">
         <v>45616</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="2">
         <v>0.031</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>0.036</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="3">
+      <c r="A7" s="1">
         <v>45586</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="2">
         <v>0.031</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>0.036</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="3">
+      <c r="A8" s="1">
         <v>45555</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="2">
         <v>0.0335</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="2">
         <v>0.0385</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="3">
+      <c r="A9" s="1">
         <v>45524</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="2">
         <v>0.0335</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="2">
         <v>0.0385</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="3">
+      <c r="A10" s="1">
         <v>45495</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="2">
         <v>0.0335</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="2">
         <v>0.0385</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="3">
+      <c r="A11" s="1">
         <v>45463</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="2">
         <v>0.0345</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="2">
         <v>0.0395</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="3">
+      <c r="A12" s="1">
         <v>45432</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="2">
         <v>0.0345</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="2">
         <v>0.0395</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="3">
+      <c r="A13" s="1">
         <v>45404</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="2">
         <v>0.0345</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="2">
         <v>0.0395</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="3">
+      <c r="A14" s="1">
         <v>45371</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="2">
         <v>0.0345</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="2">
         <v>0.0395</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="3">
+      <c r="A15" s="1">
         <v>45342</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="2">
         <v>0.0345</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="2">
         <v>0.0395</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="3">
+      <c r="A16" s="1">
         <v>45313</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="2">
         <v>0.0345</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="2">
         <v>0.042</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="3">
+      <c r="A17" s="1">
         <v>45280</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="2">
         <v>0.0345</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="2">
         <v>0.042</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="3">
+      <c r="A18" s="1">
         <v>45250</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="2">
         <v>0.0345</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="2">
         <v>0.042</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="3">
+      <c r="A19" s="1">
         <v>45219</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="2">
         <v>0.0345</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="2">
         <v>0.042</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="3">
+      <c r="A20" s="1">
         <v>45189</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="2">
         <v>0.0345</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="2">
         <v>0.042</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="3">
+      <c r="A21" s="1">
         <v>45159</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="2">
         <v>0.0345</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="2">
         <v>0.042</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="3">
+      <c r="A22" s="1">
         <v>45127</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="2">
         <v>0.0355</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="2">
         <v>0.042</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="3">
+      <c r="A23" s="1">
         <v>45097</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="2">
         <v>0.0355</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="2">
         <v>0.042</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="3">
+      <c r="A24" s="1">
         <v>45068</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="2">
         <v>0.0365</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="2">
         <v>0.043</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="3">
+      <c r="A25" s="1">
         <v>45036</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="2">
         <v>0.0365</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="2">
         <v>0.043</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="3">
+      <c r="A26" s="1">
         <v>45005</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="2">
         <v>0.0365</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="2">
         <v>0.043</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="3">
+      <c r="A27" s="1">
         <v>44977</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="2">
         <v>0.0365</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="2">
         <v>0.043</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="3">
+      <c r="A28" s="1">
         <v>44946</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="2">
         <v>0.0365</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="2">
         <v>0.043</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="3">
+      <c r="A29" s="1">
         <v>44915</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="2">
         <v>0.0365</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="2">
         <v>0.043</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="3">
+      <c r="A30" s="1">
         <v>44886</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="2">
         <v>0.0365</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="2">
         <v>0.043</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="3">
+      <c r="A31" s="1">
         <v>44854</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="2">
         <v>0.0365</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="2">
         <v>0.043</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="3">
+      <c r="A32" s="1">
         <v>44824</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="2">
         <v>0.0365</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="2">
         <v>0.043</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="3">
+      <c r="A33" s="1">
         <v>44795</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="2">
         <v>0.0365</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="2">
         <v>0.043</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="3">
+      <c r="A34" s="1">
         <v>44762</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="2">
         <v>0.037</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="2">
         <v>0.0445</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="3">
+      <c r="A35" s="1">
         <v>44732</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="2">
         <v>0.037</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="2">
         <v>0.0445</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="3">
+      <c r="A36" s="1">
         <v>44701</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="2">
         <v>0.037</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="2">
         <v>0.0445</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="3">
+      <c r="A37" s="1">
         <v>44671</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="2">
         <v>0.037</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="2">
         <v>0.046</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="3">
+      <c r="A38" s="1">
         <v>44641</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="2">
         <v>0.037</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="2">
         <v>0.046</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="3">
+      <c r="A39" s="1">
         <v>44613</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="2">
         <v>0.037</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="2">
         <v>0.046</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="3">
+      <c r="A40" s="1">
         <v>44581</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="2">
         <v>0.037</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="2">
         <v>0.046</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="3">
+      <c r="A41" s="1">
         <v>44550</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="2">
         <v>0.038</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="2">
         <v>0.0465</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="3">
+      <c r="A42" s="1">
         <v>44522</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="2">
         <v>0.0385</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="2">
         <v>0.0465</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="3">
+      <c r="A43" s="1">
         <v>44489</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="2">
         <v>0.0385</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="2">
         <v>0.0465</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="3">
+      <c r="A44" s="1">
         <v>44461</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="2">
         <v>0.0385</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="2">
         <v>0.0465</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="3">
+      <c r="A45" s="1">
         <v>44428</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="2">
         <v>0.0385</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="2">
         <v>0.0465</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="3">
+      <c r="A46" s="1">
         <v>44397</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="2">
         <v>0.0385</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="2">
         <v>0.0465</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="3">
+      <c r="A47" s="1">
         <v>44368</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47" s="2">
         <v>0.0385</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="2">
         <v>0.0465</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="3">
+      <c r="A48" s="1">
         <v>44336</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48" s="2">
         <v>0.0385</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="2">
         <v>0.0465</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="3">
+      <c r="A49" s="1">
         <v>44306</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49" s="2">
         <v>0.0385</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="2">
         <v>0.0465</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="3">
+      <c r="A50" s="1">
         <v>44277</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50" s="2">
         <v>0.0385</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="2">
         <v>0.0465</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="3">
+      <c r="A51" s="1">
         <v>44249</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51" s="2">
         <v>0.0385</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="2">
         <v>0.0465</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="3">
+      <c r="A52" s="1">
         <v>44216</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52" s="2">
         <v>0.0385</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="2">
         <v>0.0465</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="3">
+      <c r="A53" s="1">
         <v>44186</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53" s="2">
         <v>0.0385</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="2">
         <v>0.0465</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="3">
+      <c r="A54" s="1">
         <v>44155</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54" s="2">
         <v>0.0385</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="2">
         <v>0.0465</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="3">
+      <c r="A55" s="1">
         <v>44124</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55" s="2">
         <v>0.0385</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="2">
         <v>0.0465</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="3">
+      <c r="A56" s="1">
         <v>44095</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56" s="2">
         <v>0.0385</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="2">
         <v>0.0465</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="3">
+      <c r="A57" s="1">
         <v>44063</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B57" s="2">
         <v>0.0385</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="2">
         <v>0.0465</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="3">
+      <c r="A58" s="1">
         <v>44032</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58" s="2">
         <v>0.0385</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58" s="2">
         <v>0.0465</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="3">
+      <c r="A59" s="1">
         <v>44004</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B59" s="2">
         <v>0.0385</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C59" s="2">
         <v>0.0465</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="3">
+      <c r="A60" s="1">
         <v>43971</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60" s="2">
         <v>0.0385</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="2">
         <v>0.0465</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="3">
+      <c r="A61" s="1">
         <v>43941</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61" s="2">
         <v>0.0385</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="2">
         <v>0.0465</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="3">
+      <c r="A62" s="1">
         <v>43910</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B62" s="2">
         <v>0.0405</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62" s="2">
         <v>0.0475</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="3">
+      <c r="A63" s="1">
         <v>43881</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B63" s="2">
         <v>0.0405</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="2">
         <v>0.0475</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="3">
+      <c r="A64" s="1">
         <v>43850</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B64" s="2">
         <v>0.0415</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64" s="2">
         <v>0.048</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="3">
+      <c r="A65" s="1">
         <v>43819</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B65" s="2">
         <v>0.0415</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C65" s="2">
         <v>0.048</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="3">
+      <c r="A66" s="1">
         <v>43789</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B66" s="2">
         <v>0.0415</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C66" s="2">
         <v>0.048</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="3">
+      <c r="A67" s="1">
         <v>43759</v>
       </c>
-      <c r="B67" s="4">
+      <c r="B67" s="2">
         <v>0.042</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67" s="2">
         <v>0.0485</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="3">
+      <c r="A68" s="1">
         <v>43728</v>
       </c>
-      <c r="B68" s="4">
+      <c r="B68" s="2">
         <v>0.042</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C68" s="2">
         <v>0.0485</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="3">
+      <c r="A69" s="1">
         <v>43697</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B69" s="2">
         <v>0.0425</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C69" s="2">
         <v>0.0485</v>
       </c>
     </row>

--- a/【模板】贷款信息表.xlsx
+++ b/【模板】贷款信息表.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="15280" activeTab="2"/>
+    <workbookView windowHeight="15280"/>
   </bookViews>
   <sheets>
-    <sheet name="贷款明细表" sheetId="1" r:id="rId1"/>
+    <sheet name="贷款信息表" sheetId="1" r:id="rId1"/>
     <sheet name="还本计划" sheetId="2" r:id="rId2"/>
     <sheet name="LPR" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -1133,8 +1133,8 @@
   <sheetPr/>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1"/>
@@ -50425,8 +50425,8 @@
   <sheetPr/>
   <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
